--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,14 +526,64 @@
           <t>차치(Put)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20221219</t>
-        </is>
+      <c r="D4" t="n">
+        <v>20221219</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>和合</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>화음(Chord)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>화합(Harmony)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>부활(Resurrection)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>보고(Report)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20221221</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09시 54분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,14 +576,189 @@
           <t>보고(Report)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20221221</t>
-        </is>
+      <c r="D6" t="n">
+        <v>20221221</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>09시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>부활(Resurrection)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>보고(Report)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>06시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>選擇</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>괴한(Blame)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>선택(choose)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>06시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>安定</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>지지(support)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>안정(Stability)</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>06시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>殺到</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>교양(Cure)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>쇄도(Flood)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>06시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>言約</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>유리(favorable)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>언약(Appointment)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>06시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>怪漢</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>경로(Passage)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>괴한(Blame)</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>06시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>若干</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>서막(prelude)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>약간(Slightly)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>06시 36분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,14 +751,760 @@
           <t>약간(Slightly)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20221222</t>
-        </is>
+      <c r="D13" t="n">
+        <v>20221222</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>06시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>論議</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>회의</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>논의</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>義務</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>의무</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>懲役</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>징역</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>機關</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>약속</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>기관</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>懷柔</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>회포(embrace)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>회유(Tenderness)</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>서약(Vow)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>수색(search)</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>苦悶</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>회합(meet)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>고민(depressed)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>收斂</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>성실(honest)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>수렴(convergence)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>각축(Compete)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>소원(Wish)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>負傷</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>훼손(damage)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>부상(Injury)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>응시(gaze)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>경임</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>分類</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>오열(whimper)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>분류(Classification)</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>殞命</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>언약(Appointment)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>운명(die)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>話頭</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>간섭</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>화두(Words)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>회포(embrace)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>훼손(damage)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>話題</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>화음(Chord)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>화제(topic)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>沈滯</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>통제(control)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>침체(Depression)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>參席</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>약속(promise)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>참석</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>시선(Vision)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>06시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>葛藤</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>구분(distinguish)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>갈등(conflict)</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>06시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>抛棄</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>귀중(You)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>포기(abandon)</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>06시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>회유(Tenderness)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>회의(Suspect)</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>06시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>校訂</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>긍정(affim)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>교정(revision)</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>06시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>鷹視</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>국회(Parliament)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>응시(Hawking)</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>06시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>회피(Avoidance)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>克明</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>비명(scream)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>극명(Pronunciation)</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>遺棄</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>활력(vitality)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>유기(Abandon)</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>06시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>得失</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>경위</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>득실</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>直徑</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>부결(veto)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>직경(diameter)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20230104</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>07시 08분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,14 +1497,289 @@
           <t>직경(diameter)</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20230104</t>
-        </is>
+      <c r="D43" t="n">
+        <v>20230104</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>07시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>息肩</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>식별(Identify)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>식견(Shoulders)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>일관(Consistency)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>설치(set up)</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>鷹視</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>위기(crisis)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>응시(Hawking)</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>수준(level)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>묘사(description)</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>關聯</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>약속(promise)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>관련(Associate)</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>準據</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>준칙(Criterion)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>준거(Accurate)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>殞命</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>망각(forget)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>운명(die)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>和音</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>지지(support)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>화음(Chord)</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>補板</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>거부(rejection)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>보판(Supplement)</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>看護</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>토의(discussion)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>간호(Nurse)</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230112</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>간호(Nurse)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>소원(Wish)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>20230112</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,14 +1772,239 @@
           <t>소원(Wish)</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>20230112</t>
-        </is>
+      <c r="D54" t="n">
+        <v>20230112</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>운명(destiny)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>훼손(damage):체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>05시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>凌駕</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>구조(Rescue)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>능가(Overwhelm)</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>鳥瞰</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>간주(Look at)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>조감</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>濫觴</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>영유(Forever)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>남상(Settle):사물의 처음이나 기원</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>05시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>惟獨</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>유독(Only)</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>勇退</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>폐병(pulmonary disease)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>용퇴(bowing out):후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>05시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>消盡</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>도전(challenge)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>소진(Disappear)</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>05시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>省察</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>평등(equality)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>성찰(Provincial inspection)</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>05시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>두건(scarf)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>소원(Wish)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20230124</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>05시 41분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1997,14 +1997,89 @@
           <t>소원(Wish)</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>20230124</t>
-        </is>
+      <c r="D63" t="n">
+        <v>20230124</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>05시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>省察</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>수렴(convergence)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>성찰(Provincial inspection)</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230127</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>08시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>훼손(damage):체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230127</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>08시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>濫觴</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>획득(get)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>남상(Settle):사물의 처음이나 기원</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>20230127</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>08시 23분</t>
         </is>
       </c>
     </row>
